--- a/trunk/documentation/template/4 아키텍처 정의/1 아키텍처 분석/system-analysis-checklist.xlsx
+++ b/trunk/documentation/template/4 아키텍처 정의/1 아키텍처 분석/system-analysis-checklist.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 분석 영역" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="152">
   <si>
     <t>분석 내용 및 목적</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +114,521 @@
   </si>
   <si>
     <t>제품 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점검 항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점검 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 발급 승인 프로세스 존재 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무자격 계정 접속 차단 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 일괄 등록  사용자
+미사용 사용자
+퇴직 사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 목적 만료 계정 유무 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guest 역할자
+Test 역할자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할, 사용자별 권한 체계 (Role, User based)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면, 행위별 권한 체계 (ACL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 페이지 접속 차단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL 직접 입력 시 차단, 인증 페이지 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 페이지 인증 후, 접속 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 처리 후, 요청 페이지 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie 데이터 암복호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie 데이터 암복호화 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 필드 암복호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 필드 암복호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 파일 암복호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 설정 항목 암복호화 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계 시스템 인증 정보(예: DB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 전송 및 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단방향 알고리즘 적용 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5, SHA-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 구간 암호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 데이터 압축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 압축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 규칙 적용 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 패턴 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter 패턴 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter 패턴 확인 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL Injection 패턴 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL Injection 패턴 확인 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드/다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 시 확장자 필터링 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 시 용량 필터링 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드 시 물리적 파일 경로, 파일명 사용 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드 시 파일 접근 권한 확인 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSS 패턴 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 시, tag 패턴 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 시, tag 패턴 필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login, Logout 이력 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 보존일 초과 시 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터별 보존일 점검, 백업, 삭제 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 행위 이력 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 행위 이력 관리 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Log 분리 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 행위 Log 관리 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login, Logout Log 관리 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2중 접속 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2중 접속 허용/불가 관리 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한 시간 내 미사용 시, Session Invalidate 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No-Cache </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 Error Page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 Error Page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통 Exception 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 Exception 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warn Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prompt Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title Bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server Info 표시 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clustering 시 접속 서버 식별자 표시 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Form Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 Form Field 값 Validation 처리 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Masking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 Data의 Masking 처리 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output Form Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 Form Field 값의 Masking 처리 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credential Page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대외비 표시 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대외비 화면 관리, 화면 표시 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 페이지 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할, 사용자별 초기 페이지 설정 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Access Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 접속 정보 표시 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스 Flow 표시 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu 표시 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breadcrumb 표시 가능 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RSS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internationalization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deamon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID Generation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Attachement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기밀성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일관성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부인방지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authentication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quartz Scheduler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clustering 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAMJobStore
+JDBCJobStore
+TerracotaJobStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java App
+Web App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple Trigger
+Cron Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThreadLocal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +669,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +775,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,11 +1103,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C2:C18"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -740,4 +1286,816 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" s="16"/>
+      <c r="B61" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62" s="17"/>
+      <c r="B62" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A60:A62"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/documentation/template/4 아키텍처 정의/1 아키텍처 분석/system-analysis-checklist.xlsx
+++ b/trunk/documentation/template/4 아키텍처 정의/1 아키텍처 분석/system-analysis-checklist.xlsx
@@ -674,7 +674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,6 +767,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -775,9 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1143,7 +1143,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1235,7 +1235,7 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1253,7 +1253,7 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
@@ -1292,11 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1347,7 +1344,7 @@
       <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="4"/>
@@ -1358,7 +1355,7 @@
       <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="4"/>
@@ -2097,5 +2094,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/documentation/template/4 아키텍처 정의/1 아키텍처 분석/system-analysis-checklist.xlsx
+++ b/trunk/documentation/template/4 아키텍처 정의/1 아키텍처 분석/system-analysis-checklist.xlsx
@@ -770,6 +770,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -780,25 +786,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1143,7 +1143,7 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1235,7 +1235,7 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1253,7 +1253,7 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
@@ -1292,8 +1292,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1378,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1386,7 +1389,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1944,39 +1947,39 @@
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="16"/>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
